--- a/mathTransformed/HMPSTT_(2015-11-17)_39_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-11-17)_39_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -484,6 +489,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Upgraded Govt. High School (RMSA) SoragaonMudhol</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -511,6 +521,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G H S KelawadiBadami</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -538,6 +553,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Govt. P B High School Jamkhandi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -565,6 +585,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>GU H S Kaladagi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -592,6 +617,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Govt. High School KudalasangamHunagund</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -619,6 +649,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G U H S BanhattiJamkhandi</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -646,6 +681,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Govt. High School GotheJamakhandi</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t xml:space="preserve">Bagalkot </t>
         </is>
       </c>
@@ -672,7 +712,8 @@
           <t>CHINIWAR P S</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Bagalkot</t>
         </is>
@@ -703,6 +744,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Govt. High School HanagandiJamakhandi</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -730,6 +776,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Hema-vema High SchoolMetaguddMudhol Taluk</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -757,6 +808,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Govt. High School vidyanagarhungund</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -784,6 +840,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Govt. U H S Hungund</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -811,6 +872,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Govt. High School Budihal(S.A)Bilagi</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -838,6 +904,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G U H S (RMSA) AmingadHungund</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -865,6 +936,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G P U College for boys guledguddBadami</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -892,6 +968,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>A R H H S KerurBadami</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -919,6 +1000,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G U H S KerurBadami</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -946,6 +1032,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H P S RanjanagiMudhol</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -973,6 +1064,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>Govt. U H S Hanagandi</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Jamakhondi</t>
         </is>
       </c>
@@ -988,7 +1084,8 @@
           <t>Bagalkot.</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>Bagalkot</t>
         </is>
@@ -1017,6 +1114,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S Badagi(R.C) Bilagi</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1044,6 +1146,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G H S Chikkashellikeri</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1071,6 +1178,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Upgraded Govt. High School (RMSA) MachakanurMudhol</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1098,6 +1210,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G H S ChikkalagundiBilagi</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1125,6 +1242,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>B V V S H S BelagaliMudhol</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1152,6 +1274,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>Govt. G P U College GuledguddBadami</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1179,6 +1306,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Govt. High School KandagalHungund</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1206,6 +1338,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>Govt. High school Neelanagar</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1233,6 +1370,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H S NavalagiJamkhandi</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1260,6 +1402,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H S HireotageriHunagund</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1287,6 +1434,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>H P S DammurHungund</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1314,6 +1466,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>G H S SonnaBilagi</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1341,6 +1498,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>S M High SchoolTerdalJamkhandi</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1368,6 +1530,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>Govt. JR College IlkalHungund</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1395,6 +1562,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>S V P S S High School KutakankeriKendurBadami</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1422,6 +1594,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>G HS MustigeriBadami</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1449,6 +1626,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Pragati H S H. M NagarMudhol</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1476,6 +1658,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Govt. High School NagaralBilagi</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1505,6 +1692,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>Shri Sharanabasaveshwer High School Navanagar</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1533,6 +1725,11 @@
         </is>
       </c>
       <c r="F42" t="inlineStr">
+        <is>
+          <t>Govt. Urdu High SchoolGudur(SC)Hungund</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>Bagalkot</t>
         </is>

--- a/mathTransformed/HMPSTT_(2015-11-17)_39_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-11-17)_39_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,7 +686,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bagalkot </t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,6 @@
           <t>CHINIWAR P S</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>Bagalkot</t>
@@ -1069,7 +1068,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Jamakhondi</t>
+          <t>Bidar</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1083,6 @@
           <t>Bagalkot.</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
           <t>Bagalkot</t>
